--- a/Product_List.xlsx
+++ b/Product_List.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d3bc697bdb8b8b24/Documents/University Documents/CSULB Documents/CSULB CECS Files/CECS 543 Software Engineering/Assignments/Assignment 3/Assignment-3 Github Folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4140E3FA-B158-463D-BC5A-351DC22286B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37BA2AE6-50A1-443E-B421-25AE5EC36561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155"/>
   </bookViews>
   <sheets>
-    <sheet name="Product_List_Test_for_Java_CSV" sheetId="1" r:id="rId1"/>
+    <sheet name="Product_List" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Product ID</t>
   </si>
@@ -34,12 +34,6 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>Selling Price</t>
-  </si>
-  <si>
-    <t>Cost Price</t>
-  </si>
-  <si>
     <t>Sony TV</t>
   </si>
   <si>
@@ -56,15 +50,39 @@
   </si>
   <si>
     <t>Pioneer Radio</t>
+  </si>
+  <si>
+    <t>Serial Number</t>
+  </si>
+  <si>
+    <t>SNY110</t>
+  </si>
+  <si>
+    <t>LG220</t>
+  </si>
+  <si>
+    <t>SMSUNG330</t>
+  </si>
+  <si>
+    <t>SNY440</t>
+  </si>
+  <si>
+    <t>BOSSSS556</t>
+  </si>
+  <si>
+    <t>PONEER665</t>
+  </si>
+  <si>
+    <t>Selling Price ($)</t>
+  </si>
+  <si>
+    <t>Cost Price ($)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -544,7 +562,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -900,149 +918,181 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.9296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.06640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.9296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>3</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>900</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>600</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>4</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>900</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>5</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>400</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5">
         <v>2</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>10</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>100</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
         <v>1</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>7</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>260</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
         <v>2</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>3</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>450</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>200</v>
       </c>
     </row>
